--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgamal15\Desktop\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Database with Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4129455-E2D8-4A74-9519-14F2BC53FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE1667-E8AE-4E26-A7CF-B00111750FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2655" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,6 +466,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>